--- a/data/trans_dic/P23_1_2016_2023_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_1_2016_2023_R-Estudios-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2615156578507868</v>
+        <v>0.266137336932314</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2264011406395303</v>
+        <v>0.2278243880147018</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1184623380663552</v>
+        <v>0.1180346977617691</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08934806781761893</v>
+        <v>0.08872338761299961</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1876240654266391</v>
+        <v>0.1881524600214491</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1545483277718042</v>
+        <v>0.1534041843909758</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3321408720571735</v>
+        <v>0.3361827245501661</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2992020250135302</v>
+        <v>0.3023837314077495</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.162163865432056</v>
+        <v>0.1618122596304441</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1230152215840337</v>
+        <v>0.122926201028029</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2250985429529621</v>
+        <v>0.2258309261071751</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1914550473779357</v>
+        <v>0.1891977056037652</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>0.3327781364185017</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2314626744134533</v>
+        <v>0.2314626744134534</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.3608242105406521</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3655455343934848</v>
+        <v>0.3659796224255033</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2661855066346876</v>
+        <v>0.2655368546815952</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3122359352221752</v>
+        <v>0.3089046091218206</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2170168078341053</v>
+        <v>0.2136024739370909</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3454428147054853</v>
+        <v>0.3468016353187365</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2456442244029363</v>
+        <v>0.2463069314983239</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4083961473839411</v>
+        <v>0.4075406989831592</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3082614328824103</v>
+        <v>0.3088050506466344</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3552492315869193</v>
+        <v>0.3535328683336809</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2495779639927022</v>
+        <v>0.2477303117435954</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3757644514728861</v>
+        <v>0.3777063341702579</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2739676212786727</v>
+        <v>0.2741195638710469</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2102116778429369</v>
+        <v>0.210893594030173</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.129656890609422</v>
+        <v>0.1265204650483668</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.182889949200152</v>
+        <v>0.180682317549394</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1373673774746687</v>
+        <v>0.1354616810443782</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2080302704648873</v>
+        <v>0.2113915681342336</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1386657203992699</v>
+        <v>0.1394642993007555</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2873948282670013</v>
+        <v>0.2898567392513663</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1835687570350687</v>
+        <v>0.1850846214652055</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2580811543127944</v>
+        <v>0.2540906811147893</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1860470053000232</v>
+        <v>0.1850647454746181</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2605353313237642</v>
+        <v>0.2593745296721305</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1771848772584022</v>
+        <v>0.178049276710351</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>0.2601966088962014</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1895115930667039</v>
+        <v>0.189511593066704</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.3017966246588439</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3305471317985527</v>
+        <v>0.3292109810369103</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.238483593468486</v>
+        <v>0.2402840662821163</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2458580491156984</v>
+        <v>0.2463268590610563</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1782559355100237</v>
+        <v>0.1779204204718381</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2915664501049707</v>
+        <v>0.2911864749765957</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2126455908651232</v>
+        <v>0.2119898175037659</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3633017312340767</v>
+        <v>0.3627081525995531</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2722561659860424</v>
+        <v>0.2732809913135259</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2748550545234285</v>
+        <v>0.2740929514469813</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2008617363751275</v>
+        <v>0.2008121266595436</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3137122187532719</v>
+        <v>0.3135249312692941</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.233047545234044</v>
+        <v>0.2321781178195084</v>
       </c>
     </row>
     <row r="16">
@@ -1108,22 +1108,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>197047</v>
+        <v>200530</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>130980</v>
+        <v>131803</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>117546</v>
+        <v>117122</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>73448</v>
+        <v>72934</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>327544</v>
+        <v>328467</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>216455</v>
+        <v>214853</v>
       </c>
     </row>
     <row r="7">
@@ -1134,22 +1134,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>250262</v>
+        <v>253308</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>173097</v>
+        <v>174938</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>160910</v>
+        <v>160561</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>101123</v>
+        <v>101050</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>392965</v>
+        <v>394244</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>268146</v>
+        <v>264984</v>
       </c>
     </row>
     <row r="8">
@@ -1216,22 +1216,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>759013</v>
+        <v>759915</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>593153</v>
+        <v>591707</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>620158</v>
+        <v>613541</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>470923</v>
+        <v>463514</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1403385</v>
+        <v>1408905</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1080424</v>
+        <v>1083338</v>
       </c>
     </row>
     <row r="11">
@@ -1242,22 +1242,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>847988</v>
+        <v>846211</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>686912</v>
+        <v>688124</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>705590</v>
+        <v>702181</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>541580</v>
+        <v>537571</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1526569</v>
+        <v>1534458</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1204999</v>
+        <v>1205667</v>
       </c>
     </row>
     <row r="12">
@@ -1324,22 +1324,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>114736</v>
+        <v>115109</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>92262</v>
+        <v>90030</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>100263</v>
+        <v>99052</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>100610</v>
+        <v>99214</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>227591</v>
+        <v>231268</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>200233</v>
+        <v>201387</v>
       </c>
     </row>
     <row r="15">
@@ -1350,22 +1350,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>156864</v>
+        <v>158208</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>130625</v>
+        <v>131704</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>141483</v>
+        <v>139296</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>136263</v>
+        <v>135544</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>285033</v>
+        <v>283763</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>255855</v>
+        <v>257103</v>
       </c>
     </row>
     <row r="16">
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1115822</v>
+        <v>1111311</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>839095</v>
+        <v>845430</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>867058</v>
+        <v>868712</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>663903</v>
+        <v>662653</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2012492</v>
+        <v>2009869</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1540170</v>
+        <v>1535420</v>
       </c>
     </row>
     <row r="19">
@@ -1458,22 +1458,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1226391</v>
+        <v>1224387</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>957922</v>
+        <v>961528</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>969321</v>
+        <v>966633</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>748096</v>
+        <v>747912</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>2165349</v>
+        <v>2164057</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1687939</v>
+        <v>1681642</v>
       </c>
     </row>
     <row r="20">
